--- a/public/daily Reporsts In Month Of May.xlsx
+++ b/public/daily Reporsts In Month Of May.xlsx
@@ -15,12 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
     <t>May</t>
-  </si>
-  <si>
-    <t>Day</t>
   </si>
   <si>
     <t>Sales</t>
@@ -363,7 +360,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,39 +368,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="B2">
-        <v>13</v>
-      </c>
-      <c r="C2">
-        <v>5245.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>600.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4">
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>15</v>
       </c>
-      <c r="C4">
-        <v>480.0</v>
+      <c r="B2">
+        <v>1255.0</v>
       </c>
     </row>
   </sheetData>

--- a/public/daily Reporsts In Month Of May.xlsx
+++ b/public/daily Reporsts In Month Of May.xlsx
@@ -15,12 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
     <t>May</t>
-  </si>
-  <si>
-    <t>Day</t>
   </si>
   <si>
     <t>Sales</t>
@@ -363,7 +360,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,38 +368,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>13</v>
+      </c>
       <c r="B2">
-        <v>13</v>
-      </c>
-      <c r="C2">
         <v>5245.0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>14</v>
+      </c>
       <c r="B3">
-        <v>14</v>
-      </c>
-      <c r="C3">
         <v>600.0</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>15</v>
+      </c>
       <c r="B4">
-        <v>15</v>
-      </c>
-      <c r="C4">
         <v>480.0</v>
       </c>
     </row>
